--- a/ECRIT/bibliographie.xlsx
+++ b/ECRIT/bibliographie.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\MEMOIRE M2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\COURS ECOLE\Hexagone\Cours M2\MEMOIRE M2\ECRIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF76517-12D1-4053-A5CA-B5437B8E011E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7607E4-40D7-4061-9312-F0C17EED9237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2349,19 +2349,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2648,8 +2648,8 @@
   <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2659,11 +2659,11 @@
     <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="37" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37" style="3" customWidth="1"/>
+    <col min="7" max="7" width="111" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>175</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>176</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>176</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>176</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>176</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>53</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>55</v>
       </c>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>63</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>78</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>184</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>184</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>184</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>184</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>184</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>184</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>191</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>191</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>191</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>155</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>80</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>83</v>
       </c>
@@ -3594,7 +3594,7 @@
       </c>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>92</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>194</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>196</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>196</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>96</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>204</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>204</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>204</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>204</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>205</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>205</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>205</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>205</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>205</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>103</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>107</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>111</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>120</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>216</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>216</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>216</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>216</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>216</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>216</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>223</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>223</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>223</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>223</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>223</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>223</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>136</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>146</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>147</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>231</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>231</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>231</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>231</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>231</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>231</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>231</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>231</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>231</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>231</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>255</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>255</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>255</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>255</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>255</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>255</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>255</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>255</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>255</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>101</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>260</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>260</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>261</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>168</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>168</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>162</v>
       </c>
